--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="2985"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -111,15 +111,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getBindedCardUser(${436742121737})}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${DebtBatchUtils.getDebtId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -531,22 +531,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="2985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,15 +111,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${DebtBatchUtils.getDebtId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${BankCardUtils.getBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,22 +512,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,63 +536,93 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2">
+        <v>50000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>50000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>validationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -525,7 +517,6 @@
     <col min="8" max="9" width="16.125" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -536,25 +527,25 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -569,12 +560,9 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -583,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -595,35 +583,32 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>50000</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" t="s">
-        <v>16</v>
+      <c r="N2" s="2"/>
+      <c r="O2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新银行卡购买贴心计划成功</t>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtBatchUtils.getDebtId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新银行卡购买债转产品成功</t>
     <rPh sb="0" eb="1">
       <t>xin</t>
     </rPh>
@@ -96,58 +148,6 @@
     <rPh sb="10" eb="11">
       <t>cheng g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DebtBatchUtils.getDebtId()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${RandomUtils.generateUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -519,7 +519,7 @@
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,25 +527,25 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -566,15 +566,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" customFormat="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -583,32 +583,32 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>50000</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,22 @@
     <rPh sb="10" eb="11">
       <t>cheng g</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,22 +520,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="8" max="9" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1">
+    <row r="1" spans="1:18" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,37 +552,43 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customFormat="1">
+    <row r="2" spans="1:18" customFormat="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -583,31 +605,37 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>50000</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtPackageByNewBankCardSuccessful.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="1800"/>
+    <workbookView xWindow="5240" yWindow="4060" windowWidth="17480" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +82,6 @@
   </si>
   <si>
     <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DebtBatchUtils.getDebtId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,12 +166,20 @@
     <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>${DebtBatchUtils.getFinancePlan()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,22 +528,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="10" max="11" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="54.5" customWidth="1"/>
+    <col min="10" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="32.1640625" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,31 +553,31 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -588,15 +598,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -605,38 +615,38 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>50000</v>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -654,9 +664,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
